--- a/all/DS3 Master marksheet.xlsx
+++ b/all/DS3 Master marksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Mastersheet\DS-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1896496C-2FC5-4DD4-A1FC-3CD72EAA76EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAD6DF-2359-4CF9-A03E-F679EF336020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="17" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="116">
   <si>
     <r>
       <rPr>
@@ -381,6 +381,102 @@
     <t>DS3 - Student Detail</t>
   </si>
   <si>
+    <t xml:space="preserve">Level </t>
+  </si>
+  <si>
+    <t>Seconday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Started </t>
+  </si>
+  <si>
+    <t>Resp. Br.Firoz Sir</t>
+  </si>
+  <si>
+    <t>Br.Mohammad Hasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 564627373</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>sayyedhasan20@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s.sayyedabbas@gmail.com</t>
+  </si>
+  <si>
+    <t>tsheliya12@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muhammedraza@live.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ramzan110@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Javadhafiz@gmail.com</t>
+  </si>
+  <si>
+    <t>+971 55 430 7160</t>
+  </si>
+  <si>
+    <t>+971 56 607 0932</t>
+  </si>
+  <si>
+    <t>+971 50 927 1840</t>
+  </si>
+  <si>
+    <t>+971 58 117 5740</t>
+  </si>
+  <si>
+    <t>+971 56 963 7274</t>
+  </si>
+  <si>
+    <t>+971 55 230 6175</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>TAUHEED-5</t>
+  </si>
+  <si>
+    <t>TAUHEED-6</t>
+  </si>
+  <si>
+    <t>Tauheed-4</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Class Detail</t>
+  </si>
+  <si>
+    <t>WILAAYAT</t>
+  </si>
+  <si>
+    <t>Tarbiyat-e-Islam</t>
+  </si>
+  <si>
+    <t>Quranic Lesson</t>
+  </si>
+  <si>
+    <t>NAHV</t>
+  </si>
+  <si>
+    <t>Dy. Nazim</t>
+  </si>
+  <si>
+    <t>Br.Sayyed Musayiab Abbas</t>
+  </si>
+  <si>
+    <t>Class Information - DS3</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">In His Name and By The Grace of His Last Hujjat (a.t.f.s)
 </t>
@@ -388,102 +484,13 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>Master Mark Sheet of Class AUD1</t>
+      <t>Master Mark Sheet of Class - DS3</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Level </t>
-  </si>
-  <si>
-    <t>Seconday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class Started </t>
-  </si>
-  <si>
-    <t>Resp. Br.Firoz Sir</t>
-  </si>
-  <si>
-    <t>Br.Mohammad Hasan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +971 564627373</t>
-  </si>
-  <si>
-    <t>Professional</t>
-  </si>
-  <si>
-    <t>sayyedhasan20@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s.sayyedabbas@gmail.com</t>
-  </si>
-  <si>
-    <t>tsheliya12@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Muhammedraza@live.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ramzan110@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Javadhafiz@gmail.com</t>
-  </si>
-  <si>
-    <t>+971 55 430 7160</t>
-  </si>
-  <si>
-    <t>+971 56 607 0932</t>
-  </si>
-  <si>
-    <t>+971 50 927 1840</t>
-  </si>
-  <si>
-    <t>+971 58 117 5740</t>
-  </si>
-  <si>
-    <t>+971 56 963 7274</t>
-  </si>
-  <si>
-    <t>+971 55 230 6175</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>TAUHEED-5</t>
-  </si>
-  <si>
-    <t>TAUHEED-6</t>
-  </si>
-  <si>
-    <t>Tauheed-4</t>
-  </si>
-  <si>
-    <t>INDEX</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Class Detail</t>
-  </si>
-  <si>
-    <t>WILAAYAT</t>
-  </si>
-  <si>
-    <t>Tarbiyat-e-Islam</t>
-  </si>
-  <si>
-    <t>Quranic Lesson</t>
-  </si>
-  <si>
-    <t>NAHV</t>
   </si>
 </sst>
 </file>
@@ -493,7 +500,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -501,24 +508,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -714,6 +704,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -759,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -783,15 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -816,17 +803,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,46 +891,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1081,67 +1027,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1150,239 +1156,239 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1692,107 +1698,107 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:2" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="86"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="75">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="90"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="91" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="77">
+        <v>2</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="77">
+        <v>3</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="77">
+        <v>4</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="77">
+        <v>5</v>
+      </c>
+      <c r="B7" s="78" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92">
-        <v>1</v>
-      </c>
-      <c r="B3" s="93" t="s">
+    <row r="8" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77">
+        <v>6</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="77">
+        <v>7</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="94">
-        <v>2</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94">
-        <v>3</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="94">
-        <v>4</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="94">
-        <v>5</v>
-      </c>
-      <c r="B7" s="95" t="s">
+    <row r="10" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="77">
+        <v>8</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="94">
-        <v>6</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="94">
-        <v>7</v>
-      </c>
-      <c r="B9" s="96" t="s">
+    <row r="11" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="77">
+        <v>9</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="80">
+        <v>10</v>
+      </c>
+      <c r="B12" s="81" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="94">
-        <v>8</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="94">
-        <v>9</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="97">
-        <v>10</v>
-      </c>
-      <c r="B12" s="98" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1829,40 +1835,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.296875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="11" customWidth="1"/>
-    <col min="7" max="8" width="15.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="31.296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="10" customWidth="1"/>
+    <col min="7" max="8" width="15.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="13">
         <v>9</v>
       </c>
     </row>
@@ -1870,263 +1876,263 @@
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="23">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="22">
         <v>43986</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>80</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>33.5</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>59</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>77</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>83</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14">
         <v>59</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>73</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="G5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>96</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>89</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>91</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>89</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>92</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>86</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>66.25</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>50</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="F7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14">
         <v>69</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="15">
         <v>33.5</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>72</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>70</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15">
         <v>25</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="F10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14">
         <v>70</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>36</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>65</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="15">
+      <c r="F11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="14">
         <v>65</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>31</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>67</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>65</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>80</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>70</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>85</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>84</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>82</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>77</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>50</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
+      <c r="G13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2143,14 +2149,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.296875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="33.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" style="10" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2158,7 +2164,7 @@
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>44670</v>
       </c>
     </row>
@@ -2166,77 +2172,77 @@
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="32"/>
     </row>
     <row r="11" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2247,237 +2253,251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.296875" customWidth="1"/>
     <col min="4" max="4" width="30.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="75" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="90">
+        <v>41782</v>
+      </c>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+    </row>
+    <row r="9" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+    </row>
+    <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="68">
+        <v>1</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="68">
+        <v>2</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68">
+        <v>3</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="68">
+        <v>4</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="68">
+        <v>5</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="68">
+        <v>6</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="68">
         <v>7</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
-      <c r="B4" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="81">
-        <v>41782</v>
-      </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
-      <c r="B7" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-    </row>
-    <row r="11" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71">
-        <v>1</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="65" t="s">
+      <c r="B18" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71">
-        <v>2</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71">
-        <v>3</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71">
-        <v>4</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71">
-        <v>5</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="64" t="s">
+      <c r="D18" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71">
-        <v>6</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71">
-        <v>7</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="E18" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{63773F34-6751-406F-89D8-0E08D39B54B1}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{63773F34-6751-406F-89D8-0E08D39B54B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -2494,22 +2514,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14" style="11" customWidth="1"/>
+    <col min="1" max="1" width="31" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14" style="10" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2517,149 +2537,149 @@
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>62</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>68</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>61</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>72</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>76</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>65</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>82</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>81</v>
       </c>
-      <c r="M7" s="19"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>57</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>60</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>77</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>78</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>83</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
         <v>81</v>
       </c>
-      <c r="L14" s="19"/>
+      <c r="L14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2677,291 +2697,291 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="5" customWidth="1"/>
-    <col min="2" max="12" width="23.296875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="33.69921875" style="4" customWidth="1"/>
+    <col min="2" max="12" width="23.296875" style="10" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
     <col min="15" max="15" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="O1" s="14" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="O1" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>44877</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44">
         <v>44835</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="44">
         <v>44877</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="O3" s="22">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="O3" s="21">
         <v>44571</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>39</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14">
         <v>47</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>40</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28">
         <v>50</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>45</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>41</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="35" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
         <v>45</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>43</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>41</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="44" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>43</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>40</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28">
         <v>41</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>46</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
       <c r="O11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>35</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28">
         <v>46</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <v>44</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>33</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="35" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>41</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="35" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2979,167 +2999,167 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.296875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22.296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>43917</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>43918</v>
       </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>59</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>72</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>83</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>85</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>80</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>54</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="C10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>70</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>87</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>73</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>77</v>
       </c>
     </row>
@@ -3159,8 +3179,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="33.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.19921875" style="11" customWidth="1"/>
+    <col min="1" max="2" width="33.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3168,7 +3188,7 @@
       <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3177,86 +3197,86 @@
         <v>37</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="4" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="15">
+      <c r="B11" s="29"/>
+      <c r="C11" s="14">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3273,230 +3293,230 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.296875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="33.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" style="10" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="5" width="22.296875" customWidth="1"/>
     <col min="6" max="7" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="47" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="47">
         <v>44925</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <v>45010</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <v>45114</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>34</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>41</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="71">
         <v>73.75</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="49">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>41</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>49</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="72">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>42</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>41</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="72">
         <v>99.25</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>39</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>35</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>39</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>40</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="72">
         <v>82.5</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>35</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="37">
         <v>32</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>35</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="72">
         <v>59.25</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="72">
         <v>92</v>
       </c>
     </row>
@@ -3516,21 +3536,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.296875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="33.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" style="10" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3538,13 +3558,13 @@
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>44571</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>44783</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>44783</v>
       </c>
     </row>
@@ -3552,149 +3572,149 @@
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>100</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>100</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="53">
         <v>99</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="54">
         <v>79</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="54">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>100</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="54">
         <v>87</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="54">
         <v>92.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>90</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="54">
         <v>95.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <v>96.5</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <v>72</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="53">
         <v>70</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="54">
         <v>76</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3714,147 +3734,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.19921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="37.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.796875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>63</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>69</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14">
         <v>68</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>69</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>92</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14">
         <v>70</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14">
         <v>62</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="14">
         <v>67</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>82</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>61</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>78</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>66</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>56</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>58</v>
       </c>
     </row>

--- a/all/DS3 Master marksheet.xlsx
+++ b/all/DS3 Master marksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Mastersheet\DS-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAD6DF-2359-4CF9-A03E-F679EF336020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79C224D-BBE3-4578-9912-F20F255CB9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="17" r:id="rId1"/>
@@ -1354,9 +1354,27 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1371,24 +1389,6 @@
     </xf>
     <xf numFmtId="15" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1697,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44B1290-43EF-4904-9F2C-3E642598CDB7}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1708,10 +1708,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74" t="s">
@@ -1814,7 +1814,7 @@
     <hyperlink ref="B4" location="Nabuwat!A1" display="Nabuwat" xr:uid="{8A80E57E-4B86-430E-A8A9-79DC10DCFB15}"/>
     <hyperlink ref="B5" location="IMAMAT!A1" display="IMAMAT" xr:uid="{5B6472BF-7C05-420C-B5F3-F887CBCD5C4B}"/>
     <hyperlink ref="B6" location="MAAD!A1" display="MAAD" xr:uid="{2A3630F4-D0FD-4B50-9D07-ADBC5E01888C}"/>
-    <hyperlink ref="B7" location="WILAAYAT!A1" display="WILAAYAT" xr:uid="{9DF00963-48C5-4C48-9681-4B233A3058DC}"/>
+    <hyperlink ref="B7" location="WILAYAT!A1" display="WILAAYAT" xr:uid="{9DF00963-48C5-4C48-9681-4B233A3058DC}"/>
     <hyperlink ref="B8" location="TAUHEED!A1" display="TAUHEED" xr:uid="{90EF50DB-9624-4994-B1CA-1943BF949467}"/>
     <hyperlink ref="B9" location="TI!A1" display="Tarbiyat-e-Islam" xr:uid="{CAFB176C-A378-4205-A75D-F9AF887F4654}"/>
     <hyperlink ref="B10" location="QL!A1" display="Quranic Lesson" xr:uid="{6BB4B120-A25F-42D1-8BBE-CD1641313D62}"/>
@@ -2268,97 +2268,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="83"/>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="83"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="83"/>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="83"/>
-      <c r="C5" s="90">
+      <c r="C5" s="96">
         <v>41782</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="83"/>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="83"/>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="85"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
@@ -3173,9 +3173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
